--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T14:12:07+00:00</t>
+    <t>2022-03-29T12:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:06:51+00:00</t>
+    <t>2022-03-29T12:11:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-patient.xlsx
+++ b/StructureDefinition-be-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:11:46+00:00</t>
+    <t>2022-03-29T12:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
